--- a/input_spreadsheets/Tanzania/regions/InputForCode_Arusha.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Arusha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B0C10D-EAC3-0643-89E0-875757463022}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{66035FD5-0545-3D45-95C3-94EFCA299A7D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="30" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure &amp; budget" sheetId="50" r:id="rId1"/>
@@ -64,7 +64,7 @@
     <definedName name="PWPop">'[1]Baseline year demographics'!$C$44:$C$47</definedName>
     <definedName name="WRAPop">'[1]Baseline year demographics'!$C$32:$C$35</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -4165,7 +4165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="274">
   <si>
     <t>year</t>
   </si>
@@ -4968,18 +4968,6 @@
     <t>Risk</t>
   </si>
   <si>
-    <t>neonatal mortality</t>
-  </si>
-  <si>
-    <t>infant mortality</t>
-  </si>
-  <si>
-    <t>under 5 mortality</t>
-  </si>
-  <si>
-    <t>maternal mortality</t>
-  </si>
-  <si>
     <t>Available budget</t>
   </si>
   <si>
@@ -4987,6 +4975,18 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>maternal</t>
+  </si>
+  <si>
+    <t>neonatal</t>
+  </si>
+  <si>
+    <t>infant</t>
+  </si>
+  <si>
+    <t>under 5</t>
   </si>
 </sst>
 </file>
@@ -8824,12 +8824,12 @@
         <v>253</v>
       </c>
       <c r="B1" s="154" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="154" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B2" s="155">
         <v>329810.39545454545</v>
@@ -8837,7 +8837,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="154" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B3" s="153"/>
     </row>
@@ -15018,6 +15018,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -15028,11 +15033,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -17289,8 +17289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A6" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17467,7 +17467,7 @@
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="91" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C22" s="13">
         <v>23</v>
@@ -17475,7 +17475,7 @@
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="91" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C23" s="13">
         <v>38</v>
@@ -17483,7 +17483,7 @@
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="91" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C24" s="13">
         <v>56</v>
@@ -27798,8 +27798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD2B04F-79CD-644E-8CAB-0B99F3DA0979}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -28047,9 +28047,7 @@
       <c r="A39" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="91" t="s">
-        <v>161</v>
-      </c>
+      <c r="B39" s="91"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
@@ -29397,7 +29395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>

--- a/input_spreadsheets/Tanzania/regions/InputForCode_Arusha.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Arusha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{66035FD5-0545-3D45-95C3-94EFCA299A7D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3C0AECE5-59C1-B043-9433-477467FE9DD5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="30" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="28" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure &amp; budget" sheetId="50" r:id="rId1"/>
@@ -4165,7 +4165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="274">
   <si>
     <t>year</t>
   </si>
@@ -25304,8 +25304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -25407,7 +25407,7 @@
         <v>141</v>
       </c>
       <c r="B7" s="126">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="C7" s="148">
         <v>0.95</v>
@@ -27798,8 +27798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD2B04F-79CD-644E-8CAB-0B99F3DA0979}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27970,7 +27970,9 @@
       <c r="A26" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="91"/>
+      <c r="B26" s="91" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">

--- a/input_spreadsheets/Tanzania/regions/InputForCode_Arusha.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Arusha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{38F24B22-6EE8-DD4A-9CEE-108848DC86B2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{72F56274-E2B9-0F47-81B6-610B4A85A8E3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="28" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure &amp; budget" sheetId="50" r:id="rId1"/>
@@ -4928,9 +4928,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>maternal</t>
-  </si>
-  <si>
     <t>neonatal</t>
   </si>
   <si>
@@ -4941,6 +4938,9 @@
   </si>
   <si>
     <t>Kangaroo mother care</t>
+  </si>
+  <si>
+    <t>maternal mortality</t>
   </si>
 </sst>
 </file>
@@ -13758,7 +13758,7 @@
         <v>233</v>
       </c>
       <c r="B18" s="156" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C18" s="157">
         <v>1.5</v>
@@ -14964,11 +14964,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -14979,6 +14974,11 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -17235,8 +17235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17389,7 +17389,7 @@
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="90" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C19" s="13">
         <v>3.2754455445544552</v>
@@ -17413,7 +17413,7 @@
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="90" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C22" s="13">
         <v>23</v>
@@ -17421,7 +17421,7 @@
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="90" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C23" s="13">
         <v>38</v>
@@ -17429,7 +17429,7 @@
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="90" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C24" s="13">
         <v>56</v>
@@ -18886,7 +18886,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="156" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B53" s="156" t="s">
         <v>21</v>
@@ -19997,7 +19997,7 @@
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="156"/>
       <c r="B14" s="156" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C14" s="109">
         <v>1</v>
@@ -22425,7 +22425,7 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="156"/>
       <c r="B14" s="156" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C14" s="109">
         <v>1</v>
@@ -24539,7 +24539,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="156" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -25086,7 +25086,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="156" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B52" s="156"/>
       <c r="C52" s="156"/>
@@ -25410,7 +25410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A52" sqref="A52:D52"/>
     </sheetView>
   </sheetViews>
@@ -26142,7 +26142,7 @@
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="156" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B52" s="158">
         <v>0</v>
@@ -27843,7 +27843,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" s="156" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B102" s="156" t="s">
         <v>254</v>
@@ -27852,7 +27852,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" s="156" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B103" s="156" t="s">
         <v>255</v>
@@ -28268,7 +28268,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="156" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B52" s="156" t="s">
         <v>161</v>

--- a/input_spreadsheets/Tanzania/regions/InputForCode_Arusha.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Arusha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{72F56274-E2B9-0F47-81B6-610B4A85A8E3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0469E211-30F5-FE48-89DA-C03DC59594FF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19260" windowHeight="15540" tabRatio="500" firstSheet="28" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure &amp; budget" sheetId="50" r:id="rId1"/>
@@ -6155,7 +6155,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6389,7 +6389,6 @@
     <xf numFmtId="10" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -8780,32 +8779,32 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="151" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="151" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="151"/>
+    <col min="1" max="1" width="17.5" style="150" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="150" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="150"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="152" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="152" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="152" t="s">
         <v>268</v>
       </c>
-      <c r="B2" s="154">
+      <c r="B2" s="153">
         <v>329810.39545454545</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="152" t="s">
         <v>267</v>
       </c>
-      <c r="B3" s="152"/>
+      <c r="B3" s="151"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8859,17 +8858,17 @@
       <c r="B2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="149">
+      <c r="C2" s="148">
         <f>1-D2-E2-F2</f>
         <v>0.71324999999999994</v>
       </c>
-      <c r="D2" s="150">
+      <c r="D2" s="149">
         <v>0.16692000000000001</v>
       </c>
-      <c r="E2" s="150">
+      <c r="E2" s="149">
         <v>0.10057000000000001</v>
       </c>
-      <c r="F2" s="150">
+      <c r="F2" s="149">
         <v>1.9259999999999999E-2</v>
       </c>
     </row>
@@ -13754,25 +13753,25 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="155" t="s">
+      <c r="A18" s="154" t="s">
         <v>233</v>
       </c>
-      <c r="B18" s="156" t="s">
+      <c r="B18" s="155" t="s">
         <v>273</v>
       </c>
-      <c r="C18" s="157">
+      <c r="C18" s="156">
         <v>1.5</v>
       </c>
-      <c r="D18" s="157">
+      <c r="D18" s="156">
         <v>1.39</v>
       </c>
-      <c r="E18" s="156">
-        <v>1</v>
-      </c>
-      <c r="F18" s="156">
-        <v>1</v>
-      </c>
-      <c r="G18" s="156">
+      <c r="E18" s="155">
+        <v>1</v>
+      </c>
+      <c r="F18" s="155">
+        <v>1</v>
+      </c>
+      <c r="G18" s="155">
         <v>1</v>
       </c>
     </row>
@@ -13903,7 +13902,7 @@
       <c r="A2" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="159" t="s">
         <v>72</v>
       </c>
       <c r="C2" t="s">
@@ -13926,7 +13925,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="160"/>
+      <c r="B3" s="159"/>
       <c r="C3" t="s">
         <v>150</v>
       </c>
@@ -13948,7 +13947,7 @@
       <c r="J3" s="38"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="160"/>
+      <c r="B4" s="159"/>
       <c r="C4" t="s">
         <v>160</v>
       </c>
@@ -13970,7 +13969,7 @@
       <c r="J4" s="38"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="160" t="s">
+      <c r="B5" s="159" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -13993,7 +13992,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="160"/>
+      <c r="B6" s="159"/>
       <c r="C6" t="s">
         <v>150</v>
       </c>
@@ -14014,7 +14013,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="160"/>
+      <c r="B7" s="159"/>
       <c r="C7" t="s">
         <v>160</v>
       </c>
@@ -14035,7 +14034,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="160" t="s">
+      <c r="B8" s="159" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -14058,7 +14057,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="160"/>
+      <c r="B9" s="159"/>
       <c r="C9" t="s">
         <v>150</v>
       </c>
@@ -14079,7 +14078,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="160"/>
+      <c r="B10" s="159"/>
       <c r="C10" t="s">
         <v>160</v>
       </c>
@@ -14100,7 +14099,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="160" t="s">
+      <c r="B11" s="159" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -14123,7 +14122,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="160"/>
+      <c r="B12" s="159"/>
       <c r="C12" t="s">
         <v>150</v>
       </c>
@@ -14144,7 +14143,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="160"/>
+      <c r="B13" s="159"/>
       <c r="C13" t="s">
         <v>160</v>
       </c>
@@ -14165,7 +14164,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="160" t="s">
+      <c r="B14" s="159" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -14188,7 +14187,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="160"/>
+      <c r="B15" s="159"/>
       <c r="C15" t="s">
         <v>150</v>
       </c>
@@ -14209,7 +14208,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="160"/>
+      <c r="B16" s="159"/>
       <c r="C16" t="s">
         <v>160</v>
       </c>
@@ -14263,7 +14262,7 @@
       <c r="A19" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="160" t="s">
+      <c r="B19" s="159" t="s">
         <v>72</v>
       </c>
       <c r="C19" t="s">
@@ -14286,7 +14285,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="160"/>
+      <c r="B20" s="159"/>
       <c r="C20" t="s">
         <v>150</v>
       </c>
@@ -14307,7 +14306,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="160"/>
+      <c r="B21" s="159"/>
       <c r="C21" t="s">
         <v>160</v>
       </c>
@@ -14328,7 +14327,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="160" t="s">
+      <c r="B22" s="159" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -14351,7 +14350,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="160"/>
+      <c r="B23" s="159"/>
       <c r="C23" t="s">
         <v>150</v>
       </c>
@@ -14372,7 +14371,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="160"/>
+      <c r="B24" s="159"/>
       <c r="C24" t="s">
         <v>160</v>
       </c>
@@ -14393,7 +14392,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="160" t="s">
+      <c r="B25" s="159" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
@@ -14416,7 +14415,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="160"/>
+      <c r="B26" s="159"/>
       <c r="C26" t="s">
         <v>150</v>
       </c>
@@ -14437,7 +14436,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="160"/>
+      <c r="B27" s="159"/>
       <c r="C27" t="s">
         <v>160</v>
       </c>
@@ -14458,7 +14457,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="160" t="s">
+      <c r="B28" s="159" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
@@ -14481,7 +14480,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="160"/>
+      <c r="B29" s="159"/>
       <c r="C29" t="s">
         <v>150</v>
       </c>
@@ -14502,7 +14501,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="160"/>
+      <c r="B30" s="159"/>
       <c r="C30" t="s">
         <v>160</v>
       </c>
@@ -14523,7 +14522,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="160" t="s">
+      <c r="B31" s="159" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
@@ -14546,7 +14545,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="160"/>
+      <c r="B32" s="159"/>
       <c r="C32" t="s">
         <v>150</v>
       </c>
@@ -14567,7 +14566,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="160"/>
+      <c r="B33" s="159"/>
       <c r="C33" t="s">
         <v>160</v>
       </c>
@@ -14614,7 +14613,7 @@
       <c r="A36" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B36" s="160" t="s">
+      <c r="B36" s="159" t="s">
         <v>72</v>
       </c>
       <c r="C36" t="s">
@@ -14637,7 +14636,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="160"/>
+      <c r="B37" s="159"/>
       <c r="C37" t="s">
         <v>150</v>
       </c>
@@ -14658,7 +14657,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="160"/>
+      <c r="B38" s="159"/>
       <c r="C38" t="s">
         <v>160</v>
       </c>
@@ -14680,7 +14679,7 @@
       <c r="I38" s="38"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="160" t="s">
+      <c r="B39" s="159" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
@@ -14703,7 +14702,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="160"/>
+      <c r="B40" s="159"/>
       <c r="C40" t="s">
         <v>150</v>
       </c>
@@ -14724,7 +14723,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="160"/>
+      <c r="B41" s="159"/>
       <c r="C41" t="s">
         <v>160</v>
       </c>
@@ -14745,7 +14744,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="160" t="s">
+      <c r="B42" s="159" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
@@ -14768,7 +14767,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="160"/>
+      <c r="B43" s="159"/>
       <c r="C43" t="s">
         <v>150</v>
       </c>
@@ -14789,7 +14788,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="160"/>
+      <c r="B44" s="159"/>
       <c r="C44" t="s">
         <v>160</v>
       </c>
@@ -14810,7 +14809,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="160" t="s">
+      <c r="B45" s="159" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
@@ -14833,7 +14832,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="160"/>
+      <c r="B46" s="159"/>
       <c r="C46" t="s">
         <v>150</v>
       </c>
@@ -14854,7 +14853,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="160"/>
+      <c r="B47" s="159"/>
       <c r="C47" t="s">
         <v>160</v>
       </c>
@@ -14875,7 +14874,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="160" t="s">
+      <c r="B48" s="159" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
@@ -14898,7 +14897,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="160"/>
+      <c r="B49" s="159"/>
       <c r="C49" t="s">
         <v>150</v>
       </c>
@@ -14919,7 +14918,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="160"/>
+      <c r="B50" s="159"/>
       <c r="C50" t="s">
         <v>160</v>
       </c>
@@ -14964,6 +14963,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -14974,11 +14978,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -17235,7 +17234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="150" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -18885,50 +18884,50 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="156" t="s">
+      <c r="A53" s="155" t="s">
         <v>273</v>
       </c>
-      <c r="B53" s="156" t="s">
+      <c r="B53" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="156" t="s">
+      <c r="C53" s="155" t="s">
         <v>98</v>
       </c>
-      <c r="D53" s="158">
+      <c r="D53" s="157">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E53" s="158">
+      <c r="E53" s="157">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F53" s="156">
-        <v>0</v>
-      </c>
-      <c r="G53" s="156">
-        <v>0</v>
-      </c>
-      <c r="H53" s="156">
+      <c r="F53" s="155">
+        <v>0</v>
+      </c>
+      <c r="G53" s="155">
+        <v>0</v>
+      </c>
+      <c r="H53" s="155">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="156"/>
-      <c r="B54" s="156"/>
-      <c r="C54" s="156" t="s">
+      <c r="A54" s="155"/>
+      <c r="B54" s="155"/>
+      <c r="C54" s="155" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="158">
+      <c r="D54" s="157">
         <v>0.51</v>
       </c>
-      <c r="E54" s="158">
+      <c r="E54" s="157">
         <v>0.51</v>
       </c>
-      <c r="F54" s="156">
-        <v>0</v>
-      </c>
-      <c r="G54" s="156">
-        <v>0</v>
-      </c>
-      <c r="H54" s="156">
+      <c r="F54" s="155">
+        <v>0</v>
+      </c>
+      <c r="G54" s="155">
+        <v>0</v>
+      </c>
+      <c r="H54" s="155">
         <v>0</v>
       </c>
     </row>
@@ -19995,8 +19994,8 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="156"/>
-      <c r="B14" s="156" t="s">
+      <c r="A14" s="155"/>
+      <c r="B14" s="155" t="s">
         <v>273</v>
       </c>
       <c r="C14" s="109">
@@ -22423,8 +22422,8 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="156"/>
-      <c r="B14" s="156" t="s">
+      <c r="A14" s="155"/>
+      <c r="B14" s="155" t="s">
         <v>273</v>
       </c>
       <c r="C14" s="109">
@@ -24538,7 +24537,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="156" t="s">
+      <c r="A41" s="155" t="s">
         <v>273</v>
       </c>
     </row>
@@ -25085,19 +25084,19 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="156" t="s">
+      <c r="A52" s="155" t="s">
         <v>273</v>
       </c>
-      <c r="B52" s="156"/>
-      <c r="C52" s="156"/>
-      <c r="D52" s="156"/>
-      <c r="E52" s="156"/>
-      <c r="F52" s="156"/>
-      <c r="G52" s="156"/>
-      <c r="H52" s="156" t="s">
+      <c r="B52" s="155"/>
+      <c r="C52" s="155"/>
+      <c r="D52" s="155"/>
+      <c r="E52" s="155"/>
+      <c r="F52" s="155"/>
+      <c r="G52" s="155"/>
+      <c r="H52" s="155" t="s">
         <v>161</v>
       </c>
-      <c r="I52" s="156" t="s">
+      <c r="I52" s="155" t="s">
         <v>161</v>
       </c>
     </row>
@@ -25410,8 +25409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:D52"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -25485,10 +25484,10 @@
       <c r="B5" s="125">
         <v>0.112</v>
       </c>
-      <c r="C5" s="148">
+      <c r="C5" s="147">
         <v>0.95</v>
       </c>
-      <c r="D5" s="148">
+      <c r="D5" s="147">
         <v>60</v>
       </c>
     </row>
@@ -25514,10 +25513,10 @@
       <c r="B7" s="125">
         <v>0</v>
       </c>
-      <c r="C7" s="147">
+      <c r="C7" s="146">
         <v>0.95</v>
       </c>
-      <c r="D7" s="147">
+      <c r="D7" s="146">
         <f>0.25/((9862402+13370081 )/57310019)</f>
         <v>0.61670139821042802</v>
       </c>
@@ -25753,10 +25752,10 @@
       <c r="B24" s="121">
         <v>0.33600000000000002</v>
       </c>
-      <c r="C24" s="147">
+      <c r="C24" s="146">
         <v>0.95</v>
       </c>
-      <c r="D24" s="147">
+      <c r="D24" s="146">
         <v>2.06</v>
       </c>
     </row>
@@ -25781,10 +25780,10 @@
       <c r="B26" s="125">
         <v>0.78400000000000003</v>
       </c>
-      <c r="C26" s="148">
+      <c r="C26" s="147">
         <v>0.95</v>
       </c>
-      <c r="D26" s="148">
+      <c r="D26" s="147">
         <v>3.78</v>
       </c>
     </row>
@@ -25949,10 +25948,10 @@
       <c r="B38" s="121">
         <v>0.1</v>
       </c>
-      <c r="C38" s="147">
+      <c r="C38" s="146">
         <v>0.95</v>
       </c>
-      <c r="D38" s="147">
+      <c r="D38" s="146">
         <v>4.6500000000000004</v>
       </c>
     </row>
@@ -25963,7 +25962,7 @@
       <c r="B39" s="121">
         <v>0</v>
       </c>
-      <c r="C39" s="147">
+      <c r="C39" s="146">
         <v>0.95</v>
       </c>
       <c r="D39" s="141">
@@ -25978,7 +25977,7 @@
       <c r="B40" s="121">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="C40" s="147">
+      <c r="C40" s="146">
         <v>0.95</v>
       </c>
       <c r="D40" s="141">
@@ -25996,7 +25995,7 @@
       <c r="C41" s="121">
         <v>1</v>
       </c>
-      <c r="D41" s="147">
+      <c r="D41" s="146">
         <v>0.41</v>
       </c>
     </row>
@@ -26077,7 +26076,7 @@
       <c r="B47" s="127">
         <v>0.13400000000000001</v>
       </c>
-      <c r="C47" s="147">
+      <c r="C47" s="146">
         <v>0.95</v>
       </c>
       <c r="D47" s="141">
@@ -26102,10 +26101,10 @@
       <c r="A49" s="120" t="s">
         <v>157</v>
       </c>
-      <c r="B49" s="145">
-        <v>0</v>
-      </c>
-      <c r="C49" s="146">
+      <c r="B49" s="127">
+        <v>0.107</v>
+      </c>
+      <c r="C49" s="145">
         <v>0.95</v>
       </c>
       <c r="D49" s="144" t="s">
@@ -26140,17 +26139,17 @@
         <v>252</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="156" t="s">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="120" t="s">
         <v>273</v>
       </c>
-      <c r="B52" s="158">
-        <v>0</v>
-      </c>
-      <c r="C52" s="159">
+      <c r="B52" s="127">
+        <v>0</v>
+      </c>
+      <c r="C52" s="158">
         <v>0.95</v>
       </c>
-      <c r="D52" s="159">
+      <c r="D52" s="158">
         <v>8.84</v>
       </c>
     </row>
@@ -26771,8 +26770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFEE49AB-5966-5B46-9CF2-A4BF105110A1}">
   <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:C103"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27791,7 +27790,7 @@
       </c>
       <c r="C96" s="24"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" t="str">
         <f>A96</f>
         <v>IYCF 1</v>
@@ -27799,9 +27798,14 @@
       <c r="B97" s="90" t="s">
         <v>255</v>
       </c>
-      <c r="C97" s="24"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C97" s="24">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" t="str">
         <f>'Programs to include'!A50</f>
         <v>IYCF 2</v>
@@ -27811,7 +27815,7 @@
       </c>
       <c r="C98" s="24"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" t="str">
         <f>A98</f>
         <v>IYCF 2</v>
@@ -27821,7 +27825,7 @@
       </c>
       <c r="C99" s="24"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" t="str">
         <f>'Programs to include'!A51</f>
         <v>IYCF 3</v>
@@ -27831,7 +27835,7 @@
       </c>
       <c r="C100" s="24"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="str">
         <f>A100</f>
         <v>IYCF 3</v>
@@ -27841,23 +27845,23 @@
       </c>
       <c r="C101" s="24"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A102" s="156" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" s="155" t="s">
         <v>273</v>
       </c>
-      <c r="B102" s="156" t="s">
+      <c r="B102" s="155" t="s">
         <v>254</v>
       </c>
-      <c r="C102" s="159"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A103" s="156" t="s">
+      <c r="C102" s="158"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103" s="155" t="s">
         <v>273</v>
       </c>
-      <c r="B103" s="156" t="s">
+      <c r="B103" s="155" t="s">
         <v>255</v>
       </c>
-      <c r="C103" s="159"/>
+      <c r="C103" s="158"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28267,10 +28271,10 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="156" t="s">
+      <c r="A52" s="155" t="s">
         <v>273</v>
       </c>
-      <c r="B52" s="156" t="s">
+      <c r="B52" s="155" t="s">
         <v>161</v>
       </c>
     </row>

--- a/input_spreadsheets/Tanzania/regions/InputForCode_Arusha.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Arusha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0469E211-30F5-FE48-89DA-C03DC59594FF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1F26587A-AD8F-EC40-AA6C-D286DCFF8FB4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19260" windowHeight="15540" tabRatio="500" firstSheet="28" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19260" windowHeight="15540" tabRatio="500" firstSheet="13" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure &amp; budget" sheetId="50" r:id="rId1"/>
@@ -14963,11 +14963,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -14978,6 +14973,11 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -15213,8 +15213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -15329,7 +15329,7 @@
         <v>0.91500000000000004</v>
       </c>
       <c r="D8">
-        <v>10.49</v>
+        <v>3.78</v>
       </c>
       <c r="E8">
         <v>0.05</v>
@@ -15343,8 +15343,9 @@
         <f t="shared" ref="C9:C12" si="0">1.5*0.61</f>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D9">
-        <v>10.49</v>
+      <c r="D9" s="90">
+        <f>10.49/4</f>
+        <v>2.6225000000000001</v>
       </c>
       <c r="E9">
         <v>0.05</v>
@@ -15358,8 +15359,9 @@
         <f t="shared" si="0"/>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D10">
-        <v>10.49</v>
+      <c r="D10" s="90">
+        <f t="shared" ref="D10:D12" si="1">10.49/4</f>
+        <v>2.6225000000000001</v>
       </c>
       <c r="E10">
         <v>0.05</v>
@@ -15373,8 +15375,9 @@
         <f t="shared" si="0"/>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D11">
-        <v>10.49</v>
+      <c r="D11" s="90">
+        <f t="shared" si="1"/>
+        <v>2.6225000000000001</v>
       </c>
       <c r="E11">
         <v>0.05</v>
@@ -15388,8 +15391,9 @@
         <f t="shared" si="0"/>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D12">
-        <v>10.49</v>
+      <c r="D12" s="90">
+        <f t="shared" si="1"/>
+        <v>2.6225000000000001</v>
       </c>
       <c r="E12">
         <v>0.05</v>
@@ -25409,7 +25413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
